--- a/Documentation/Product Backlog.xlsx
+++ b/Documentation/Product Backlog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,10 +13,95 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Req ID</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Start Recording</t>
+  </si>
+  <si>
+    <t>Pause Recording</t>
+  </si>
+  <si>
+    <t>Stop Recording</t>
+  </si>
+  <si>
+    <t>Save Recording</t>
+  </si>
+  <si>
+    <t>Delete Recording</t>
+  </si>
+  <si>
+    <t>View Recording</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Share Recording</t>
+  </si>
+  <si>
+    <t>Restore Recording</t>
+  </si>
+  <si>
+    <t>Rename Recording</t>
+  </si>
+  <si>
+    <t>Backup Recordings</t>
+  </si>
+  <si>
+    <t>Open Settings</t>
+  </si>
+  <si>
+    <t>Change Quality</t>
+  </si>
+  <si>
+    <t>Change Codec</t>
+  </si>
+  <si>
+    <t>Create GUI</t>
+  </si>
+  <si>
+    <t>Set Max Time</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -44,14 +129,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +227,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +435,347 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/Product Backlog.xlsx
+++ b/Documentation/Product Backlog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Req ID</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>Set Max Time</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>AMR</t>
+  </si>
+  <si>
+    <t>Create Timer</t>
   </si>
 </sst>
 </file>
@@ -129,9 +138,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -484,6 +494,9 @@
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -500,6 +513,9 @@
       </c>
       <c r="E3">
         <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -518,6 +534,9 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -535,6 +554,9 @@
       <c r="E5">
         <v>3</v>
       </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -552,6 +574,9 @@
       <c r="E6">
         <v>2</v>
       </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -569,6 +594,9 @@
       <c r="E7">
         <v>4</v>
       </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -586,6 +614,9 @@
       <c r="E8">
         <v>2</v>
       </c>
+      <c r="F8" s="2">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -603,6 +634,9 @@
       <c r="E9">
         <v>4</v>
       </c>
+      <c r="F9" s="2">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -620,6 +654,9 @@
       <c r="E10">
         <v>1</v>
       </c>
+      <c r="F10" s="2">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -637,6 +674,9 @@
       <c r="E11">
         <v>2</v>
       </c>
+      <c r="F11" s="2">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -723,7 +763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -740,7 +780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -757,7 +797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -772,6 +812,26 @@
       </c>
       <c r="E19">
         <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Product Backlog.xlsx
+++ b/Documentation/Product Backlog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Req ID</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>Create Timer</t>
+  </si>
+  <si>
+    <t>Change View</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>MediaStore</t>
   </si>
 </sst>
 </file>
@@ -446,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,19 +569,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -580,10 +589,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -592,58 +601,56 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.6</v>
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -652,24 +659,24 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.6</v>
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -680,78 +687,87 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>3</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>2</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -765,76 +781,133 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
         <v>5</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:F23">
+    <sortCondition ref="D1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Documentation/Product Backlog.xlsx
+++ b/Documentation/Product Backlog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Req ID</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>AMR</t>
   </si>
   <si>
     <t>Create Timer</t>
@@ -458,7 +455,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -524,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -710,7 +707,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -847,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F20" s="2">
         <v>0.5</v>
@@ -858,7 +855,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -875,7 +872,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -892,7 +889,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>2</v>

--- a/Documentation/Product Backlog.xlsx
+++ b/Documentation/Product Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Req ID</t>
   </si>
@@ -101,17 +101,25 @@
   </si>
   <si>
     <t>MediaStore</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -119,8 +127,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -150,7 +165,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -166,7 +181,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -454,17 +469,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
-    <col min="6" max="6" width="10.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -504,7 +519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -524,7 +539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -544,7 +559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -564,7 +579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -584,7 +599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>7</v>
       </c>
@@ -604,7 +619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>8</v>
       </c>
@@ -624,7 +639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>9</v>
       </c>
@@ -640,9 +655,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>14</v>
       </c>
@@ -662,7 +679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>17</v>
       </c>
@@ -678,11 +695,11 @@
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="F11" s="2">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>18</v>
       </c>
@@ -702,7 +719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>21</v>
       </c>
@@ -718,8 +735,11 @@
       <c r="E13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>5</v>
       </c>
@@ -739,7 +759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>10</v>
       </c>
@@ -759,7 +779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>11</v>
       </c>
@@ -776,7 +796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>12</v>
       </c>
@@ -793,7 +813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>13</v>
       </c>
@@ -810,7 +830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>15</v>
       </c>
@@ -830,7 +850,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
@@ -850,7 +870,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -867,7 +887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -884,7 +904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -905,6 +925,7 @@
   <sortState ref="A2:F23">
     <sortCondition ref="D1"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Documentation/Product Backlog.xlsx
+++ b/Documentation/Product Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Req ID</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Change Quality</t>
-  </si>
-  <si>
-    <t>Change Codec</t>
   </si>
   <si>
     <t>Create GUI</t>
@@ -109,17 +106,47 @@
   <si>
     <t>Yes</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storage Space</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>WAV, AMR</t>
+  </si>
+  <si>
+    <t>3-4 Formats</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Progress Bar</t>
+  </si>
+  <si>
+    <t>Change File Directory</t>
+  </si>
+  <si>
+    <t>Save/Cancel Settings</t>
+  </si>
+  <si>
+    <t>Jesse, Lijuwa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -127,13 +154,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -165,7 +192,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -181,7 +208,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -467,19 +494,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -516,10 +543,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -536,10 +563,10 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -556,10 +583,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -576,10 +603,10 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>6</v>
       </c>
@@ -596,10 +623,10 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>7</v>
       </c>
@@ -616,10 +643,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>8</v>
       </c>
@@ -636,10 +663,10 @@
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>9</v>
       </c>
@@ -656,10 +683,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>14</v>
       </c>
@@ -676,15 +703,15 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -693,18 +720,21 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -716,15 +746,15 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -736,10 +766,10 @@
         <v>3</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>5</v>
       </c>
@@ -756,10 +786,10 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>10</v>
       </c>
@@ -776,10 +806,10 @@
         <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>11</v>
       </c>
@@ -787,7 +817,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -796,7 +826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>12</v>
       </c>
@@ -804,7 +834,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -813,7 +843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>13</v>
       </c>
@@ -821,7 +851,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -830,7 +860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>15</v>
       </c>
@@ -849,13 +879,16 @@
       <c r="F19" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -866,16 +899,16 @@
       <c r="E20">
         <v>10</v>
       </c>
-      <c r="F20" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -886,16 +919,19 @@
       <c r="E21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -903,13 +939,16 @@
       <c r="E22">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -918,7 +957,101 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Product Backlog.xlsx
+++ b/Documentation/Product Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Req ID</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Change Quality</t>
+  </si>
+  <si>
+    <t>Change Codec</t>
   </si>
   <si>
     <t>Create GUI</t>
@@ -106,47 +109,17 @@
   <si>
     <t>Yes</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Storage Space</t>
-  </si>
-  <si>
-    <t>Alan</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>WAV, AMR</t>
-  </si>
-  <si>
-    <t>3-4 Formats</t>
-  </si>
-  <si>
-    <t>Matt</t>
-  </si>
-  <si>
-    <t>Progress Bar</t>
-  </si>
-  <si>
-    <t>Change File Directory</t>
-  </si>
-  <si>
-    <t>Save/Cancel Settings</t>
-  </si>
-  <si>
-    <t>Jesse, Lijuwa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -154,13 +127,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -192,7 +165,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -208,7 +181,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -494,19 +467,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
-    <col min="6" max="6" width="10.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -543,10 +516,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -563,10 +536,10 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -583,10 +556,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -603,10 +576,10 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -623,10 +596,10 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>7</v>
       </c>
@@ -643,10 +616,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>8</v>
       </c>
@@ -663,10 +636,10 @@
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>9</v>
       </c>
@@ -683,10 +656,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>14</v>
       </c>
@@ -703,15 +676,15 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -720,21 +693,18 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -746,15 +716,15 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -766,10 +736,10 @@
         <v>3</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>5</v>
       </c>
@@ -786,10 +756,10 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>10</v>
       </c>
@@ -806,10 +776,10 @@
         <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>11</v>
       </c>
@@ -817,7 +787,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -826,7 +796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>12</v>
       </c>
@@ -834,7 +804,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -843,7 +813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>13</v>
       </c>
@@ -851,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -860,7 +830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>15</v>
       </c>
@@ -879,16 +849,13 @@
       <c r="F19" s="2">
         <v>0.2</v>
       </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -899,16 +866,16 @@
       <c r="E20">
         <v>10</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="F20" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -919,19 +886,16 @@
       <c r="E21">
         <v>5</v>
       </c>
-      <c r="F21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -939,16 +903,13 @@
       <c r="E22">
         <v>10</v>
       </c>
-      <c r="G22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -957,101 +918,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="F23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>8</v>
-      </c>
-      <c r="G26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Product Backlog.xlsx
+++ b/Documentation/Product Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Req ID</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>Create Timer</t>
   </si>
   <si>
     <t>Change View</t>
@@ -109,17 +106,38 @@
   <si>
     <t>Yes</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>3-4 Formats</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Change File Directory</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Create Timer/Progress</t>
+  </si>
+  <si>
+    <t>David</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -127,13 +145,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -165,7 +183,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -181,7 +199,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -467,19 +485,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -519,7 +537,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -539,7 +557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -559,7 +577,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -579,7 +597,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>6</v>
       </c>
@@ -599,7 +617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>7</v>
       </c>
@@ -619,7 +637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>8</v>
       </c>
@@ -639,7 +657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>9</v>
       </c>
@@ -656,10 +674,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>14</v>
       </c>
@@ -679,7 +697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>17</v>
       </c>
@@ -695,11 +713,14 @@
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>18</v>
       </c>
@@ -719,12 +740,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -736,10 +757,10 @@
         <v>3</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>5</v>
       </c>
@@ -759,7 +780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>10</v>
       </c>
@@ -779,7 +800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>11</v>
       </c>
@@ -796,7 +817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>12</v>
       </c>
@@ -813,7 +834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>13</v>
       </c>
@@ -830,7 +851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>15</v>
       </c>
@@ -849,8 +870,11 @@
       <c r="F19" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>16</v>
       </c>
@@ -866,16 +890,16 @@
       <c r="E20">
         <v>10</v>
       </c>
-      <c r="F20" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -887,12 +911,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -903,13 +927,16 @@
       <c r="E22">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -918,7 +945,52 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
